--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori2/67/correct_predictions_67.xlsx
@@ -857,26 +857,26 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
+          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -896,52 +896,52 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -956,52 +956,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hardware malfunction</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1016,37 +1016,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Contact DJI Support to arrange for repairs</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>7-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1076,52 +1076,52 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Compass data error . Please contact DJI Support .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1136,52 +1136,52 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1196,42 +1196,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Temp Max Altitude : 98ft</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1256,52 +1256,52 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1316,42 +1316,42 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Critical low battery . Return to home or land promptly .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,42 +1376,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,37 +1436,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1496,102 +1496,102 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-13</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5-13</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>15-17</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1607,71 +1607,71 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1697,16 +1697,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1727,76 +1727,76 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1817,21 +1817,21 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1847,81 +1847,81 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1937,16 +1937,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1967,26 +1967,26 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>Insufficient SD card space . Change card or delete files .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2006,22 +2006,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2477,31 +2477,31 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Running Flight Simulator . Restart aircraft to take off .</t>
+          <t>Satellite positioning off . Fly with Caution .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Restart aircraft to take off</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2516,42 +2516,42 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Satellite positioning off . Fly with Caution .</t>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Not suitable for shooting a 4K video</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>8-14</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori2/67/correct_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_original/ori2/67/correct_predictions_67.xlsx
@@ -857,26 +857,26 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn . Cannot enable Follow Me Mode .</t>
+          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Battery installed incorrectly</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -896,52 +896,52 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly</t>
+          <t>Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly . Detach battery and reinstall it .</t>
+          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Detach battery and reinstall it</t>
+          <t>Battery overheating</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -956,52 +956,52 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Battery overheating</t>
+          <t>Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Battery overheating . Stop flying and wait for battery temperature to return to normal .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Stop flying and wait for battery temperature to return to normal</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3-13</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1016,37 +1016,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Camera sensor error</t>
+          <t>Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-13</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Compass data error . Please contact DJI Support .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Camera sensor error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1076,52 +1076,52 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
+          <t>Compass data error . Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Compass interference</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1136,52 +1136,52 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Compass interference</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-15</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
+          <t>Compass interference . Please move the aircraft away from potential interference source or calibrate the compass .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Compass Interference</t>
+          <t>Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>3-15</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1196,42 +1196,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Temp Max Altitude : 98ft</t>
+          <t>Compass Interference</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Critical low battery . Recharge promptly .</t>
+          <t>Compass Interference . Temp Max Altitude : 98ft .</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1256,52 +1256,52 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Critical low battery . Return to home or land promptly .</t>
+          <t>Critical low battery . Recharge promptly .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Return to home or land promptly</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1316,42 +1316,42 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Critical low battery</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
+          <t>Critical low battery . Return to home or land promptly .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot</t>
+          <t>Critical low battery</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,42 +1376,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cool down the monitor to prevent overheating</t>
+          <t>CrystalSky is too hot</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
+          <t>CrystalSky is too hot . Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Contact DJI Support for assistance</t>
+          <t>Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>5-11</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1436,37 +1436,37 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Downward vision sensor error</t>
+          <t>Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
+          <t>Downward vision sensor error . Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Extended flight distance detected</t>
+          <t>Downward vision sensor error</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1496,102 +1496,102 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Extended flight distance detected</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5-13</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Extended flight distance detected . Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1607,71 +1607,71 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>15-17</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1697,16 +1697,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1727,76 +1727,76 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1817,21 +1817,21 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1847,81 +1847,81 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1937,16 +1937,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1967,26 +1967,26 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Insufficient SD card space . Change card or delete files .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2006,22 +2006,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2477,31 +2477,31 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Satellite positioning off . Fly with Caution .</t>
+          <t>Running Flight Simulator . Restart aircraft to take off .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Satellite positioning off</t>
+          <t>Restart aircraft to take off</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-8</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2516,42 +2516,42 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Fly with Caution</t>
+          <t>Satellite positioning off</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+          <t>Satellite positioning off . Fly with Caution .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Not suitable for shooting a 4K video</t>
+          <t>Fly with Caution</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>8-14</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
